--- a/biology/Médecine/Hôpital_Saint-Cyr_(Villeneuve-sur-Lot)/Hôpital_Saint-Cyr_(Villeneuve-sur-Lot).xlsx
+++ b/biology/Médecine/Hôpital_Saint-Cyr_(Villeneuve-sur-Lot)/Hôpital_Saint-Cyr_(Villeneuve-sur-Lot).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
+          <t>Hôpital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L' hôpital Saint-Cyr est situé no 2 boulevard Saint-Cyr-de-Coquard, à Villeneuve-sur-Lot, dans le département de Lot-et-Garonne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
+          <t>Hôpital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital Saint-Cyr a été élevé grâce à la générosité de Pierre Nicolas Saint-Cyr de Cocquard. Les plans ont été dessinés entre 1833 et 1834 par l'architecte du département Gustave Bourrières. Sa construction est terminée en 1840. Le logement du directeur a été édifié vers 1845.
 L'hôpital s'est agrandi dans la seconde moitié du XIXe siècle et XXe siècle vers l'est et le nord.
-Le centre hospitalier de Villeneuve-sur-Lot a été déplacé dans de nouveaux locaux : Centre Hospitalier, Brugnol Romas sur la route de Fumel[1].
+Le centre hospitalier de Villeneuve-sur-Lot a été déplacé dans de nouveaux locaux : Centre Hospitalier, Brugnol Romas sur la route de Fumel.
 Deux locaux n'ont pas été modifiés depuis leur construction : la chapelle et l'apothicairerie. La chapelle a conservé son mobilier. L'apothicairerie a gardé son agencement intérieur. Les objets de l'apothicairerie, dont les pots à pharmacie, ont été déposés au musée de Gajac de Villeneuve-sur-Lot.
-L'hôpital a été inscrit au titre des monuments historiques le 20 décembre 2005[2],[3].
+L'hôpital a été inscrit au titre des monuments historiques le 20 décembre 2005,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
+          <t>Hôpital_Saint-Cyr_(Villeneuve-sur-Lot)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
